--- a/data/trans_dic/P41E_2023_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.005983003300123489</v>
+        <v>0.005983003300123488</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.003060744105937126</v>
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.0188844908613315</v>
+        <v>0.02246033411042945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01026021315819135</v>
+        <v>0.01140063968590514</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02131206496380854</v>
+        <v>0.02131206496380853</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.0176156176271678</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0049541776008124</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005903331330797632</v>
+        <v>0.006333367595089443</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07775550626139031</v>
+        <v>0.08036654263471149</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04678938636328618</v>
+        <v>0.04682441765857717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04737331149525668</v>
+        <v>0.04747355918167</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08387455044141631</v>
+        <v>0.08239502533825081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09325039761719608</v>
+        <v>0.09513162852642351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09767866205819006</v>
+        <v>0.0981330020660092</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1748320927847181</v>
+        <v>0.1776376958776015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1701517910331556</v>
+        <v>0.1715091051056497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1559699612708954</v>
+        <v>0.1568392524355099</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005982414618291278</v>
+        <v>0.0061403753524982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05366131237793122</v>
+        <v>0.05604975797914252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03376396595342482</v>
+        <v>0.03419263401468697</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03701654586480188</v>
+        <v>0.03906664664288514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1122179465900177</v>
+        <v>0.1128237441737366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06836076001276946</v>
+        <v>0.06695664075228853</v>
       </c>
     </row>
     <row r="16">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.07500866909253746</v>
+        <v>0.07500866909253749</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.0150494969093605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0436648740742768</v>
+        <v>0.04366487407427681</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03811341243965237</v>
+        <v>0.03826585085974259</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004298325754663129</v>
+        <v>0.00424021825515909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02385673052338477</v>
+        <v>0.02472769877653297</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1360931621776953</v>
+        <v>0.1350108341526936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04450674471481484</v>
+        <v>0.04535563161080394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07320680008565103</v>
+        <v>0.07759404847624055</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1007398458015207</v>
+        <v>0.1001014598067389</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1301545170356627</v>
+        <v>0.127656125837028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1237127975376674</v>
+        <v>0.1229570017057006</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1845175470352756</v>
+        <v>0.1843635190610372</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2214879017606509</v>
+        <v>0.2205062693723705</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1832123325686888</v>
+        <v>0.1857039025395878</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>0.01685931414816836</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01657071622843882</v>
+        <v>0.01657071622843881</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.01670997656839186</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005753839418791954</v>
+        <v>0.005984070958942158</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007546758729539166</v>
+        <v>0.007707726359516946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009257782405120844</v>
+        <v>0.009281654758107315</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03472224245028764</v>
+        <v>0.03609022791575307</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0358449058717051</v>
+        <v>0.03863370905468681</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02888128851292939</v>
+        <v>0.02836506735834097</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2604328913411328</v>
+        <v>0.2621293598019954</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3088809083671362</v>
+        <v>0.3068591048652101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2952716919666543</v>
+        <v>0.2945286645516533</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.342391566734655</v>
+        <v>0.3457232479308034</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.391539493711777</v>
+        <v>0.3968887258270105</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3573802931469807</v>
+        <v>0.3562599163242606</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="31">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3106</v>
+        <v>3694</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3298</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="8">
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1414</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9476</v>
+        <v>9795</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5504</v>
+        <v>5509</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11347</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15838</v>
+        <v>15559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18394</v>
+        <v>18765</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37712</v>
+        <v>37888</v>
       </c>
     </row>
     <row r="15">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33013</v>
+        <v>33543</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33564</v>
+        <v>33831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60218</v>
+        <v>60554</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1169</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10137</v>
+        <v>10588</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12974</v>
+        <v>13139</v>
       </c>
     </row>
     <row r="19">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7231</v>
+        <v>7632</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21199</v>
+        <v>21313</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26269</v>
+        <v>25729</v>
       </c>
     </row>
     <row r="20">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3349</v>
+        <v>3362</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4392</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="23">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11957</v>
+        <v>11862</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4283</v>
+        <v>4365</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13477</v>
+        <v>14284</v>
       </c>
     </row>
     <row r="24">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18739</v>
+        <v>18620</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19669</v>
+        <v>19292</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41708</v>
+        <v>41453</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34322</v>
+        <v>34294</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33472</v>
+        <v>33324</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>61767</v>
+        <v>62607</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1874</v>
+        <v>1949</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2636</v>
+        <v>2692</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6248</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11308</v>
+        <v>11753</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12518</v>
+        <v>13492</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19492</v>
+        <v>19143</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>103220</v>
+        <v>103893</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>109079</v>
+        <v>108365</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>221301</v>
+        <v>220744</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>135704</v>
+        <v>137024</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>138269</v>
+        <v>140158</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>267850</v>
+        <v>267011</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
     </row>
     <row r="40">
